--- a/docs/sprintB/global-artifacts/PI-2023-24 Self-Assessment.xlsx
+++ b/docs/sprintB/global-artifacts/PI-2023-24 Self-Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp.sharepoint.com/teams/LAPR2-DG-DH_20232024-ISEP365Group-LAPR2_PI_G72_ByteMasters/Shared Documents/LAPR2_PI_G72_Byte Masters/In progress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\IdeaProjects\lei-24-s2-1dg-g072\docs\sprintB\global-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{AFF3F20A-886C-4F8A-9CC7-3E19ED3C264F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B22DFBE-EC8F-4EF0-8F8A-8576338F1433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834246C-0963-423C-8B15-71276F7ECB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4147" yWindow="8002" windowWidth="21794" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
   <si>
     <t>Fill the cells with a blue background</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>List A</t>
-  </si>
-  <si>
-    <t>Student 5</t>
   </si>
   <si>
     <t>Student 6</t>
@@ -524,6 +521,24 @@
   </si>
   <si>
     <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1504,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2671 24575,'0'-20'0,"0"1"0,0-12 0,0 4 0,0-9 0,0 7 0,0-17 0,0-27 0,0 26 0,0-33 0,0 42 0,0-1 0,0-8 0,6 18 0,2-17 0,6 17 0,0-7 0,-6 9 0,4 1 0,-11-1 0,9 8 0,-8-6 0,7 13 0,-8-5 0,3 6 0,-4-6 0,26-37 0,-14 19 0,20-30 0,-21 44 0,1-8 0,-6 17 0,6-13 0,-11 13 0,11-13 0,-6 13 0,7-12 0,-1 4 0,1-6 0,0-1 0,0 1 0,1-1 0,0-9 0,-1 14 0,1-13 0,-2 16 0,0 0 0,-1 1 0,1 1 0,-2 5 0,14-7 0,-5-3 0,4 7 0,1-8 0,-12 12 0,13-2 0,-13 3 0,12-9 0,-12 7 0,13-7 0,-6 1 0,55-19 0,9-2 0,-24 5 0,22-3 0,-6 5 0,-48 20 0,11 5 0,-9-6 0,9 0 0,-11 5 0,-8-2 0,6 9 0,-6-4 0,18-2 0,-8-1 0,7-6 0,-10 0 0,1 7 0,-8-3 0,6 8 0,-1-7 0,3 8 0,-3-8 0,1 8 0,-13-4 0,13 5 0,-13 0 0,12-6 0,-11 5 0,16-5 0,-9 0 0,4 5 0,1-5 0,-6 0 0,0 4 0,6-9 0,-6 9 0,1-4 0,-3 6 0,-7-4 0,8 3 0,-6-4 0,5 5 0,-6 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,8 0 0,-6 0 0,5 0 0,-7 0 0,1 0 0,-2 0 0,-7 0 0,-11-6 0,-9-1 0,-1-5 0,-16-2 0,10-3 0,-6 3 0,3-9 0,8 9 0,1-3 0,0-2 0,9 7 0,-3-13 0,1 6 0,-10-18 0,7 8 0,-13-7 0,12 0 0,-3 7 0,-2-7 0,6 9 0,-19-2 0,10 8 0,-5 5 0,5 4 0,12 6 0,-6-6 0,1 7 0,4-5 0,-4 9 0,7-8 0,-1 3 0,1-4 0,0 5 0,0-5 0,-10 0 0,9 3 0,-4-6 0,7 11 0,7-6 0,1 11 0,5-1 0,4 7 0,1 1 0,2 8 0,16 4 0,-5-1 0,13 1 0,-9-3 0,9-3 0,-7 3 0,7-4 0,-15 4 0,4-4 0,-12 2 0,5-5 0,-8-2 0,0 1 0,1-1 0,0 7 0,0-5 0,0 6 0,1-1 0,-1-5 0,0 6 0,-1-8 0,-4 8 0,3-6 0,3 17 0,-5-16 0,3 16 0,-10-17 0,6 13 0,-4-13 0,14 17 0,-14-16 0,9 9 0,-5-4 0,-5-6 0,10 5 0,-10-6 0,3-1 0,1 0 0,-4 0 0,4 1 0,-2-6 0,1 0 0,4-5 0,0 0 0,1 0 0,0 0 0,8 0 0,-5 0 0,12 0 0,-12 0 0,6 0 0,-8 0 0,0 0 0,0 0 0,-4 3 0,-6-2 0,-6 7 0,-10-7 0,4 8 0,-13-2 0,6 5 0,-2 7 0,-4-4 0,4 4 0,1 0 0,-5-4 0,11 3 0,-10 0 0,10 2 0,-3-1 0,4 5 0,0 6 0,-21 20 0,13 2 0,-22 8 0,25-11 0,-12 0 0,13-10 0,-5-3 0,9-9 0,5-8 0,-2-1 0,9-8 0,-4 0 0,5 0 0,-3-4 0,-2 3 0,-4-3 0,-2 4 0,1 0 0,0 1 0,4-1 0,-3 0 0,8 0 0,-4 0 0,1-4 0,3-2 0,-4-4 0</inkml:trace>
 </inkml:ink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,37 +1806,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.8984375" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1836,13 +1847,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1864,7 +1875,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1883,9 +1894,9 @@
         <f>C13</f>
         <v>1230917</v>
       </c>
-      <c r="H9" s="43" t="str">
+      <c r="H9" s="43">
         <f>C14</f>
-        <v>Student 5</v>
+        <v>1221119</v>
       </c>
       <c r="I9" s="43" t="str">
         <f>C15</f>
@@ -1931,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1230948</v>
@@ -1999,7 +2010,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1230630</v>
@@ -2032,7 +2043,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1230917</v>
@@ -2065,13 +2076,15 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63"/>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
+      <c r="C14" s="8">
+        <v>1221119</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="36"/>
@@ -2085,15 +2098,15 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="51" t="e">
+      <c r="S14" s="51">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63"/>
       <c r="C15" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2115,10 +2128,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2140,10 +2153,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2165,10 +2178,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2190,10 +2203,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2215,10 +2228,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2240,10 +2253,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2265,10 +2278,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2290,10 +2303,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2315,10 +2328,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -2340,7 +2353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2351,7 +2364,7 @@
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
@@ -2407,72 +2420,72 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2495,36 +2508,36 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="C3" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
@@ -2545,117 +2558,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
       <c r="D4" s="69"/>
       <c r="E4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
       <c r="D5" s="69"/>
       <c r="E5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="29">
-        <v>1230462</v>
+        <v>1221119</v>
       </c>
       <c r="C6" s="29">
         <v>4</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="I6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="J6" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="29">
-        <v>1230948</v>
+        <v>1221119</v>
       </c>
       <c r="C7" s="29">
         <v>4</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="29">
         <v>1230630</v>
@@ -2665,27 +2678,27 @@
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J8" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="29">
         <v>1230630</v>
@@ -2695,27 +2708,27 @@
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J9" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="29">
         <v>1230948</v>
@@ -2725,27 +2738,27 @@
       </c>
       <c r="D10" s="60"/>
       <c r="E10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="29">
         <v>1230917</v>
@@ -2755,27 +2768,27 @@
       </c>
       <c r="D11" s="60"/>
       <c r="E11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="29">
         <v>1230917</v>
@@ -2785,27 +2798,27 @@
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="29">
         <v>1230462</v>
@@ -2815,310 +2828,336 @@
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J13" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1230948</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4</v>
+      </c>
       <c r="D14" s="60"/>
       <c r="E14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J14" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1230630</v>
+      </c>
       <c r="C15" s="29"/>
       <c r="D15" s="60"/>
       <c r="E15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J15" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1230917</v>
+      </c>
       <c r="C16" s="29"/>
       <c r="D16" s="60"/>
       <c r="E16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J16" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1230630</v>
+      </c>
       <c r="C17" s="29"/>
       <c r="D17" s="60"/>
       <c r="E17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J17" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1230462</v>
+      </c>
       <c r="C18" s="29"/>
       <c r="D18" s="60"/>
       <c r="E18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J18" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1230462</v>
+      </c>
       <c r="C19" s="29"/>
       <c r="D19" s="60"/>
       <c r="E19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="60"/>
       <c r="E20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J20" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="60"/>
       <c r="E21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J21" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="60"/>
       <c r="E22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J22" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="60"/>
       <c r="E23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J23" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="60"/>
       <c r="E24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="J24" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="61"/>
       <c r="E25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="H25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="I25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="J25" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3167,26 +3206,26 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3203,13 +3242,13 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20">
         <f>'Group and Self Assessment'!C10</f>
@@ -3227,9 +3266,9 @@
         <f>'Group and Self Assessment'!C13</f>
         <v>1230917</v>
       </c>
-      <c r="G3" s="20" t="str">
+      <c r="G3" s="20">
         <f>'Group and Self Assessment'!C14</f>
-        <v>Student 5</v>
+        <v>1221119</v>
       </c>
       <c r="H3" s="20" t="str">
         <f>'Group and Self Assessment'!C15</f>
@@ -3299,15 +3338,15 @@
         <v>5</v>
       </c>
       <c r="Y3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="B4" s="17">
         <v>0.1</v>
@@ -3340,29 +3379,29 @@
         <v>4.75</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="17">
         <v>0.2</v>
@@ -3395,29 +3434,29 @@
         <v>4</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="U5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="W5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="17">
         <v>0.5</v>
@@ -3450,29 +3489,29 @@
         <v>4</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="X6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="17">
         <v>0.2</v>
@@ -3497,29 +3536,29 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="X7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18">
         <f>SUM(B4:B7)</f>
@@ -3595,9 +3634,9 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23">
@@ -3670,7 +3709,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3689,28 +3728,28 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="13"/>
@@ -3727,12 +3766,12 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20">
         <f>'Group and Self Assessment'!C10</f>
@@ -3749,9 +3788,9 @@
       <c r="F3" s="20">
         <v>1230917</v>
       </c>
-      <c r="G3" s="20" t="str">
+      <c r="G3" s="20">
         <f>'Group and Self Assessment'!C14</f>
-        <v>Student 5</v>
+        <v>1221119</v>
       </c>
       <c r="H3" s="20" t="str">
         <f>'Group and Self Assessment'!C15</f>
@@ -3821,15 +3860,15 @@
         <v>5</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="17">
         <v>0.1</v>
@@ -3862,29 +3901,29 @@
         <v>3</v>
       </c>
       <c r="S4" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="U4" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="59" t="s">
+      <c r="V4" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="W4" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="X4" s="59" t="s">
         <v>84</v>
-      </c>
-      <c r="X4" s="59" t="s">
-        <v>85</v>
       </c>
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17">
         <v>0.1</v>
@@ -3917,29 +3956,29 @@
         <v>4</v>
       </c>
       <c r="S5" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="59" t="s">
+      <c r="U5" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="59" t="s">
+      <c r="V5" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="V5" s="59" t="s">
+      <c r="W5" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="59" t="s">
+      <c r="X5" s="59" t="s">
         <v>91</v>
-      </c>
-      <c r="X5" s="59" t="s">
-        <v>92</v>
       </c>
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="17">
         <v>0.05</v>
@@ -3972,29 +4011,29 @@
         <v>4.75</v>
       </c>
       <c r="S6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="T6" s="59" t="s">
+      <c r="U6" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="U6" s="59" t="s">
+      <c r="V6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="59" t="s">
+      <c r="W6" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="W6" s="59" t="s">
+      <c r="X6" s="59" t="s">
         <v>98</v>
-      </c>
-      <c r="X6" s="59" t="s">
-        <v>99</v>
       </c>
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
         <v>0.05</v>
@@ -4027,29 +4066,29 @@
         <v>4.5</v>
       </c>
       <c r="S7" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="U7" s="59" t="s">
+      <c r="V7" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="59" t="s">
+      <c r="W7" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="59" t="s">
+      <c r="X7" s="59" t="s">
         <v>104</v>
-      </c>
-      <c r="X7" s="59" t="s">
-        <v>105</v>
       </c>
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="17">
         <v>0.1</v>
@@ -4082,29 +4121,29 @@
         <v>0</v>
       </c>
       <c r="S8" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="59" t="s">
+      <c r="V8" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="V8" s="59" t="s">
+      <c r="W8" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="W8" s="59" t="s">
+      <c r="X8" s="59" t="s">
         <v>110</v>
-      </c>
-      <c r="X8" s="59" t="s">
-        <v>111</v>
       </c>
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="17">
         <v>0.05</v>
@@ -4137,25 +4176,25 @@
         <v>1</v>
       </c>
       <c r="S9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="59" t="s">
         <v>113</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>114</v>
       </c>
       <c r="U9" s="59"/>
       <c r="V9" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W9" s="59"/>
       <c r="X9" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="17">
         <v>0.1</v>
@@ -4188,29 +4227,29 @@
         <v>3</v>
       </c>
       <c r="S10" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T10" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="U10" s="59" t="s">
+      <c r="V10" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="V10" s="59" t="s">
+      <c r="W10" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="W10" s="59" t="s">
+      <c r="X10" s="59" t="s">
         <v>121</v>
-      </c>
-      <c r="X10" s="59" t="s">
-        <v>122</v>
       </c>
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="17">
         <v>0.1</v>
@@ -4243,29 +4282,29 @@
         <v>1</v>
       </c>
       <c r="S11" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T11" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="U11" s="59" t="s">
+      <c r="V11" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="59" t="s">
+      <c r="W11" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="59" t="s">
+      <c r="X11" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="X11" s="59" t="s">
-        <v>128</v>
       </c>
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="17">
         <v>0.1</v>
@@ -4298,29 +4337,29 @@
         <v>4</v>
       </c>
       <c r="S12" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T12" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="V12" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="V12" s="59" t="s">
+      <c r="W12" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="59" t="s">
+      <c r="X12" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="X12" s="59" t="s">
-        <v>128</v>
       </c>
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="17">
         <v>0.1</v>
@@ -4353,29 +4392,29 @@
         <v>5</v>
       </c>
       <c r="S13" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="T13" s="59" t="s">
+      <c r="U13" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="U13" s="59" t="s">
+      <c r="V13" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="V13" s="59" t="s">
+      <c r="W13" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="W13" s="59" t="s">
+      <c r="X13" s="59" t="s">
         <v>135</v>
-      </c>
-      <c r="X13" s="59" t="s">
-        <v>136</v>
       </c>
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="17">
         <v>0.15</v>
@@ -4408,29 +4447,29 @@
         <v>4.25</v>
       </c>
       <c r="S14" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="U14" s="59" t="s">
+      <c r="V14" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="V14" s="59" t="s">
+      <c r="W14" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="59" t="s">
+      <c r="X14" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="X14" s="59" t="s">
-        <v>128</v>
       </c>
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="18">
         <f>SUM(B4:B14)</f>
@@ -4506,9 +4545,9 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23">
@@ -4581,7 +4620,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4596,6 +4635,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D9ED7F45DD900409A5D99E97E335963" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44488dccc8fb9294dc9e36698b55b96b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff019923-845f-4cec-b528-abe64a753035" xmlns:ns3="4227a201-73e6-4916-b2cb-be6808c272c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50eb2e8e6296c0fb34e6bfa23a8e76d0" ns2:_="" ns3:_="">
     <xsd:import namespace="ff019923-845f-4cec-b528-abe64a753035"/>
@@ -4806,40 +4864,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
-    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4862,9 +4890,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
+    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/sprintB/global-artifacts/PI-2023-24 Self-Assessment.xlsx
+++ b/docs/sprintB/global-artifacts/PI-2023-24 Self-Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\IdeaProjects\lei-24-s2-1dg-g072\docs\sprintB\global-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2834246C-0963-423C-8B15-71276F7ECB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC4568-6C52-4B40-A626-3B69998CB148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4147" yWindow="8002" windowWidth="21794" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1806,37 +1806,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1847,13 +1847,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1875,7 +1875,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1230948</v>
@@ -2010,7 +2010,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1230630</v>
@@ -2043,7 +2043,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1230917</v>
@@ -2076,12 +2076,14 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1221119</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
       <c r="E14" s="8">
         <v>4</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -2128,7 +2130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -2153,7 +2155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>9</v>
@@ -2178,7 +2180,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2203,7 +2205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>11</v>
@@ -2228,7 +2230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
@@ -2253,7 +2255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -2278,7 +2280,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -2303,7 +2305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>15</v>
@@ -2328,7 +2330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>16</v>
@@ -2353,14 +2355,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="46">
         <f>AVERAGE(D10:D24)</f>
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
@@ -2420,27 +2422,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2508,25 +2510,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2582,7 +2584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2606,7 +2608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>138</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>139</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>141</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>142</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>143</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>144</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>145</v>
       </c>
@@ -2846,7 +2848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>146</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>147</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>148</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>149</v>
       </c>
@@ -2960,7 +2962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>151</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -3040,7 +3042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -3064,7 +3066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -3088,7 +3090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -3112,7 +3114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3136,7 +3138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3206,24 +3208,24 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
@@ -3242,8 +3244,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3344,7 +3346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -3399,7 +3401,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
@@ -3454,7 +3456,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>64</v>
       </c>
@@ -3509,7 +3511,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
@@ -3556,7 +3558,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3634,7 +3636,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
@@ -3709,7 +3711,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3732,22 +3734,22 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
@@ -3766,7 +3768,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3866,7 +3868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
@@ -3921,7 +3923,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>85</v>
       </c>
@@ -3976,7 +3978,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>92</v>
       </c>
@@ -4031,7 +4033,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
@@ -4086,7 +4088,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>105</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
@@ -4192,7 +4194,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -4247,7 +4249,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
@@ -4302,7 +4304,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>128</v>
       </c>
@@ -4357,7 +4359,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>129</v>
       </c>
@@ -4412,7 +4414,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>136</v>
       </c>
@@ -4467,7 +4469,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -4545,7 +4547,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>76</v>
       </c>
@@ -4620,7 +4622,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4635,25 +4637,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D9ED7F45DD900409A5D99E97E335963" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44488dccc8fb9294dc9e36698b55b96b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff019923-845f-4cec-b528-abe64a753035" xmlns:ns3="4227a201-73e6-4916-b2cb-be6808c272c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50eb2e8e6296c0fb34e6bfa23a8e76d0" ns2:_="" ns3:_="">
     <xsd:import namespace="ff019923-845f-4cec-b528-abe64a753035"/>
@@ -4864,10 +4847,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
+    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4890,20 +4903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
-    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>